--- a/PayrollProject/templates/CourtOrderAEO1971CivilDebtInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderAEO1971CivilDebtInputSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Provar\PeopleXCDPayroll\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D1281F-0BE8-42A1-B4AE-CC60549F641E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC128A8-FAFA-4C63-9E78-7D578AC653AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
@@ -66,16 +66,16 @@
     <t>12000</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>AEO1971civildebt_Payroll</t>
   </si>
   <si>
     <t>DO NOT TOUCH AUTMN COAEO1971CivilDebt RE</t>
   </si>
   <si>
-    <t>November-2018</t>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,13 +515,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +586,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PayrollProject/templates/CourtOrderAEO1971CivilDebtInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderAEO1971CivilDebtInputSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC128A8-FAFA-4C63-9E78-7D578AC653AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F4D1BC-ACC0-4EC2-89A0-0ECEB26AFB3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>EmpName</t>
   </si>
@@ -69,13 +69,16 @@
     <t>AEO1971civildebt_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTMN COAEO1971CivilDebt RE</t>
-  </si>
-  <si>
     <t>October-2019</t>
   </si>
   <si>
     <t>November-2019</t>
+  </si>
+  <si>
+    <t>DO NOT AEO1971CDOCT</t>
+  </si>
+  <si>
+    <t>DO NOT AEO1971CDNOV</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -534,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C9D326-24C3-49F9-A6BB-B9862FE77EE5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
